--- a/api/resources/excel/redemption_report_workbook.xlsx
+++ b/api/resources/excel/redemption_report_workbook.xlsx
@@ -64,67 +64,67 @@
     <t>9d9c53b9-bfaa-450b-85ed-68f86756b9c5</t>
   </si>
   <si>
+    <t>coupon_code</t>
+  </si>
+  <si>
+    <t>TEST1234</t>
+  </si>
+  <si>
+    <t>campaign_name</t>
+  </si>
+  <si>
+    <t>Test Campaign</t>
+  </si>
+  <si>
+    <t>coupon_name</t>
+  </si>
+  <si>
+    <t>Test Coupon</t>
+  </si>
+  <si>
+    <t>discount_amount</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>Test Item</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t>customer_email</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>customer_phone</t>
+  </si>
+  <si>
     <t>coupon_code_id</t>
   </si>
   <si>
-    <t>coupon_code</t>
-  </si>
-  <si>
-    <t>TEST1234</t>
-  </si>
-  <si>
     <t>campaign_id</t>
   </si>
   <si>
-    <t>campaign_name</t>
-  </si>
-  <si>
-    <t>Test Campaign</t>
-  </si>
-  <si>
     <t>coupon_id</t>
   </si>
   <si>
-    <t>coupon_name</t>
-  </si>
-  <si>
-    <t>Test Coupon</t>
-  </si>
-  <si>
-    <t>discount_amount</t>
-  </si>
-  <si>
-    <t>number</t>
+    <t>external_customer_id</t>
   </si>
   <si>
     <t>external_item_id</t>
-  </si>
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>Test Item</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>Test User</t>
-  </si>
-  <si>
-    <t>customer_email</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>test@test.com</t>
-  </si>
-  <si>
-    <t>customer_phone</t>
-  </si>
-  <si>
-    <t>external_customer_id</t>
   </si>
   <si>
     <t>redeemed_at</t>
@@ -498,16 +498,13 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -516,12 +513,12 @@
         <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -529,30 +526,27 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -560,16 +554,13 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -578,40 +569,41 @@
         <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100.0</v>
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>16</v>
+      <c r="K11" s="3">
+        <f>918659743652</f>
+        <v>918659743652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -619,13 +611,16 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -633,22 +628,28 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -656,14 +657,13 @@
         <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="3">
-        <f>918659743652</f>
-        <v>918659743652</v>
+      <c r="K15" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
